--- a/3_Backcasting analysis/analysis/Categorisation of risks/3. Merged risks.xlsx
+++ b/3_Backcasting analysis/analysis/Categorisation of risks/3. Merged risks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kvase0-my.sharepoint.com/personal/loudel30_kva_se/Documents/Dokument/GitHub/WEF-GRR-analysis/3_Backcasting analysis/analysis/Categorisation of risks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{F25284FF-781C-4308-A39C-79864F41FA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB4276AA-0384-42F5-A1A7-EC11E1612A03}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{F25284FF-781C-4308-A39C-79864F41FA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{283A093E-29F3-4248-B4BA-4357F797EED4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Risk</t>
   </si>
@@ -56,12 +56,6 @@
     <t>CONFLICTS -  conflicts</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>Asset bubbles in a major economy</t>
-  </si>
-  <si>
     <t>ECOLOGICAL - ecosystem services</t>
   </si>
   <si>
@@ -74,51 +68,18 @@
     <t>ECOLOGICAL - diseases</t>
   </si>
   <si>
-    <t>2012–2013</t>
-  </si>
-  <si>
     <t>GEOPHYSICAL</t>
   </si>
   <si>
-    <t>Extreme climate change related weather</t>
-  </si>
-  <si>
-    <t>Fiscal crises</t>
-  </si>
-  <si>
-    <t>Human-made environmental damage and disasters</t>
-  </si>
-  <si>
     <t>CONFLICT - terrorist attacks</t>
   </si>
   <si>
-    <t>2006–2010</t>
-  </si>
-  <si>
-    <t>Irremediable pollution</t>
-  </si>
-  <si>
-    <t>Land and waterway use mismanagement</t>
-  </si>
-  <si>
     <t>Large-scale terrorist attacks</t>
   </si>
   <si>
-    <t>Liquidity crises</t>
-  </si>
-  <si>
     <t>Loss of freshwater services</t>
   </si>
   <si>
-    <t>Natural resource crises</t>
-  </si>
-  <si>
-    <t>Oil or gas prices rise/shock</t>
-  </si>
-  <si>
-    <t>2006-2008</t>
-  </si>
-  <si>
     <t>2006–2021</t>
   </si>
   <si>
@@ -131,58 +92,61 @@
     <t>2007-2008; 2011–2021</t>
   </si>
   <si>
-    <t>2007-2008; 2011-2021</t>
-  </si>
-  <si>
     <t>Biodiversity loss / ecosystem collapse</t>
   </si>
   <si>
-    <t>2009-2020</t>
-  </si>
-  <si>
     <t>Food insecurity / shortages</t>
   </si>
   <si>
     <t>2006; 2009-2021</t>
   </si>
   <si>
-    <t>2007-2010; 2014</t>
-  </si>
-  <si>
-    <t>2006–2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Debt crises </t>
   </si>
   <si>
-    <t>2012-2014; 2015–2021</t>
-  </si>
-  <si>
-    <t>2011-2014</t>
-  </si>
-  <si>
     <t xml:space="preserve">Breakdown of critical infrastructure or networks </t>
   </si>
   <si>
     <t>2006-2021</t>
   </si>
   <si>
-    <t>2014–2019; 2021</t>
-  </si>
-  <si>
     <t>Extreme weather events from climate change</t>
   </si>
   <si>
-    <t>2006-2011; 2015–2021</t>
-  </si>
-  <si>
     <t>Earthquake / volcanic eruptions / major geophysical disasters</t>
   </si>
   <si>
-    <t>Failure / collapse of a major financial mechanism or institution</t>
-  </si>
-  <si>
     <t>Infectious disease / pandemics</t>
+  </si>
+  <si>
+    <t>2009-2021</t>
+  </si>
+  <si>
+    <t>Commodity shock (energy or food)</t>
+  </si>
+  <si>
+    <t>2007-2015</t>
+  </si>
+  <si>
+    <t>Asset bubbles / liquidity crises</t>
+  </si>
+  <si>
+    <t>Failure / collapse of a major financial institution or currency</t>
+  </si>
+  <si>
+    <t>2011-2021</t>
+  </si>
+  <si>
+    <t>Fiscal / debt crises</t>
+  </si>
+  <si>
+    <t>Lack / failure of public infrastructures</t>
+  </si>
+  <si>
+    <t>2012-2021</t>
+  </si>
+  <si>
+    <t>Human-made environmental damage / pollution</t>
   </si>
 </sst>
 </file>
@@ -545,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,239 +535,195 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C32" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
-      <sortCondition ref="B1:B32"/>
+  <autoFilter ref="A1:C28" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
+      <sortCondition ref="B1:B28"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/3_Backcasting analysis/analysis/Categorisation of risks/3. Merged risks.xlsx
+++ b/3_Backcasting analysis/analysis/Categorisation of risks/3. Merged risks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kvase0-my.sharepoint.com/personal/loudel30_kva_se/Documents/Dokument/GitHub/WEF-GRR-analysis/3_Backcasting analysis/analysis/Categorisation of risks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{F25284FF-781C-4308-A39C-79864F41FA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{283A093E-29F3-4248-B4BA-4357F797EED4}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{F25284FF-781C-4308-A39C-79864F41FA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A039D73A-8E56-4494-9F88-D543E4B5E19E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Risk</t>
   </si>
@@ -53,27 +53,18 @@
     <t>CLIMATIC</t>
   </si>
   <si>
-    <t>CONFLICTS -  conflicts</t>
-  </si>
-  <si>
     <t>ECOLOGICAL - ecosystem services</t>
   </si>
   <si>
     <t>TECHNOLOGICAL</t>
   </si>
   <si>
-    <t>2007; 2021</t>
-  </si>
-  <si>
     <t>ECOLOGICAL - diseases</t>
   </si>
   <si>
     <t>GEOPHYSICAL</t>
   </si>
   <si>
-    <t>CONFLICT - terrorist attacks</t>
-  </si>
-  <si>
     <t>Large-scale terrorist attacks</t>
   </si>
   <si>
@@ -101,9 +92,6 @@
     <t>2006; 2009-2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Debt crises </t>
-  </si>
-  <si>
     <t xml:space="preserve">Breakdown of critical infrastructure or networks </t>
   </si>
   <si>
@@ -147,6 +135,12 @@
   </si>
   <si>
     <t>Human-made environmental damage / pollution</t>
+  </si>
+  <si>
+    <t>GEOPOLITICAL -  conflicts</t>
+  </si>
+  <si>
+    <t>GEOPOLITICAL - terrorist attacks</t>
   </si>
 </sst>
 </file>
@@ -509,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,29 +529,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -568,131 +562,131 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -700,32 +694,22 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C28" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C18">
-      <sortCondition ref="B1:B28"/>
+  <autoFilter ref="A1:C27" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
+      <sortCondition ref="B1:B27"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3_Backcasting analysis/analysis/Categorisation of risks/3. Merged risks.xlsx
+++ b/3_Backcasting analysis/analysis/Categorisation of risks/3. Merged risks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kvase0-my.sharepoint.com/personal/loudel30_kva_se/Documents/Dokument/GitHub/WEF-GRR-analysis/3_Backcasting analysis/analysis/Categorisation of risks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{F25284FF-781C-4308-A39C-79864F41FA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A039D73A-8E56-4494-9F88-D543E4B5E19E}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{F25284FF-781C-4308-A39C-79864F41FA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{559F1DEE-62D0-4A12-8891-4471FE1EB440}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>Risk</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>GEOPOLITICAL - terrorist attacks</t>
+  </si>
+  <si>
+    <t>2007-2021</t>
   </si>
 </sst>
 </file>
@@ -506,17 +509,17 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -538,7 +541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -549,7 +552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -560,7 +563,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -571,7 +574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -582,7 +585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -593,7 +596,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -604,7 +607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -615,7 +618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -626,7 +629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -634,10 +637,10 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -648,7 +651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -659,7 +662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -670,7 +673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -681,7 +684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -692,7 +695,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
